--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_13.xlsx
@@ -26332,7 +26332,7 @@
         <v>62951.03685317954</v>
       </c>
       <c r="I2" t="n">
-        <v>62951.03685317953</v>
+        <v>62951.03685317954</v>
       </c>
       <c r="J2" t="n">
         <v>62951.03685317954</v>
@@ -26347,13 +26347,13 @@
         <v>62951.03685317954</v>
       </c>
       <c r="N2" t="n">
-        <v>62951.03685317953</v>
+        <v>62951.03685317954</v>
       </c>
       <c r="O2" t="n">
         <v>62951.03685317954</v>
       </c>
       <c r="P2" t="n">
-        <v>62951.03685317954</v>
+        <v>62951.03685317953</v>
       </c>
     </row>
     <row r="3">
@@ -26528,7 +26528,7 @@
         <v>16745.78189038901</v>
       </c>
       <c r="E6" t="n">
-        <v>55727.3973308028</v>
+        <v>55727.39733080281</v>
       </c>
       <c r="F6" t="n">
         <v>55837.29948737576</v>
@@ -26540,7 +26540,7 @@
         <v>55837.29948737576</v>
       </c>
       <c r="I6" t="n">
-        <v>55837.29948737575</v>
+        <v>55837.29948737576</v>
       </c>
       <c r="J6" t="n">
         <v>55837.29948737576</v>
@@ -26555,13 +26555,13 @@
         <v>55837.29948737576</v>
       </c>
       <c r="N6" t="n">
-        <v>55837.29948737575</v>
+        <v>55837.29948737576</v>
       </c>
       <c r="O6" t="n">
         <v>55837.29948737576</v>
       </c>
       <c r="P6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
     </row>
   </sheetData>
